--- a/changesAndImprovements.xlsx
+++ b/changesAndImprovements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seppe/Documents/IP1a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanl\Documents\SCHOOL\FASE 4\IP1\IP1a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35296F8-7C9C-FB43-A45C-F72CDD0AEC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3BD0C9C-820F-4C36-958A-881251CE3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3600" windowWidth="28800" windowHeight="18000" xr2:uid="{798358E4-09A8-434B-9D52-81472A6062D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{798358E4-09A8-434B-9D52-81472A6062D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Blad1!$A$1:$F$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Assignment integrated practicum 1</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>reduction [% ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delay </t>
+  </si>
+  <si>
+    <t>reduction [\%]</t>
   </si>
 </sst>
 </file>
@@ -95,9 +101,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -155,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -178,50 +184,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,235 +571,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E33BE0-5C0B-404C-9530-C9516209ECB6}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>16.466999999999999</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7">
+      <c r="D4" s="4"/>
+      <c r="G4" s="5">
         <v>911940</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>16.439499999999999</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D11" si="0">$C$4 -C5</f>
         <v>2.7499999999999858E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="G5" s="5">
         <v>911370</v>
       </c>
-      <c r="F5" s="8">
-        <f>($E$4 -E5)/$E$4</f>
+      <c r="H5" s="6">
+        <f>($G$4 -G5)/$G$4</f>
         <v>6.2504112112638985E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>16.366900000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>0.10009999999999764</v>
       </c>
-      <c r="E6" s="7">
+      <c r="G6" s="5">
         <v>908910</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F11" si="1">($E$4 -E6)/$E$4</f>
+      <c r="H6" s="6">
+        <f>($G$4 -G6)/$G$4</f>
         <v>3.3225870123034409E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>15.8612</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>0.60579999999999856</v>
       </c>
-      <c r="E7" s="7">
+      <c r="G7" s="5">
         <v>898060</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="1"/>
+      <c r="H7" s="6">
+        <f>($G$4 -G7)/$G$4</f>
         <v>1.5220299581112793E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>11.917999999999999</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>4.5489999999999995</v>
       </c>
-      <c r="E8" s="7">
+      <c r="G8" s="5">
         <v>827500</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
+      <c r="H8" s="6">
+        <f>($G$4 -G8)/$G$4</f>
         <v>9.2593810996337483E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>16.028300000000002</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>0.4386999999999972</v>
       </c>
-      <c r="E9" s="7">
+      <c r="G9" s="5">
         <v>922600</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="1"/>
+      <c r="H9" s="6">
+        <f>($G$4 -G9)/$G$4</f>
         <v>-1.1689365528433889E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>7.7248999999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>8.7420999999999989</v>
       </c>
-      <c r="E10" s="7">
+      <c r="G10" s="5">
         <v>775320</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
+      <c r="H10" s="6">
+        <f>($G$4 -G10)/$G$4</f>
         <v>0.14981248766366209</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>4.8555999999999999</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>11.6114</v>
       </c>
-      <c r="E11" s="12">
+      <c r="G11" s="10">
         <v>775020</v>
       </c>
-      <c r="F11" s="13">
-        <f t="shared" si="1"/>
+      <c r="H11" s="11">
+        <f>($G$4 -G11)/$G$4</f>
         <v>0.15014145667478124</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -778,7 +818,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
